--- a/data/nomarat_darsi.xlsx
+++ b/data/nomarat_darsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9210B836-CFCE-4B07-AB26-BCBE6779C293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23216A34-494A-4D04-BDC0-7116CEB93F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DCF09317-D3C1-4922-A09C-5CC4773B1873}"/>
   </bookViews>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,6 +1241,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">

--- a/data/nomarat_darsi.xlsx
+++ b/data/nomarat_darsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23216A34-494A-4D04-BDC0-7116CEB93F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A554A-7881-45DE-9900-FF975431DF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DCF09317-D3C1-4922-A09C-5CC4773B1873}"/>
   </bookViews>

--- a/data/nomarat_darsi.xlsx
+++ b/data/nomarat_darsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\متون\New folder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9210B836-CFCE-4B07-AB26-BCBE6779C293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2A554A-7881-45DE-9900-FF975431DF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{DCF09317-D3C1-4922-A09C-5CC4773B1873}"/>
   </bookViews>
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,6 +1241,15 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
